--- a/tables/test_summary_master.xlsx
+++ b/tables/test_summary_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jboyko/corhmm-dredge/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F8B5DF-C577-1349-A1AF-90276A96A59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B021E1E-040B-7949-B932-2CB072E44336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30780" yWindow="8360" windowWidth="27580" windowHeight="15320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
